--- a/MainTop/09.05.2025/макс мес с 09.04.2025 по 09.05.2025/WB_поставка_спрос_20д_макс_sorted.xlsx
+++ b/MainTop/09.05.2025/макс мес с 09.04.2025 по 09.05.2025/WB_поставка_спрос_20д_макс_sorted.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\09.05.2025\макс мес с 09.04.2025 по 09.05.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AD77B7-1E19-4F69-8CB4-78957220B401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81860C62-F65B-4298-9DD8-2F54CCF4D1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -541,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,6 +861,12 @@
         <v>2</v>
       </c>
     </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f>SUM(B2:B39)</f>
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
